--- a/natmiOut/OldD2/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H2">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I2">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J2">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.123340946863606</v>
+        <v>0.0753475</v>
       </c>
       <c r="N2">
-        <v>0.123340946863606</v>
+        <v>0.150695</v>
       </c>
       <c r="O2">
-        <v>0.09552686694092614</v>
+        <v>0.03832198229806438</v>
       </c>
       <c r="P2">
-        <v>0.09552686694092614</v>
+        <v>0.02965805314694783</v>
       </c>
       <c r="Q2">
-        <v>3.564158103881698</v>
+        <v>2.2413817481975</v>
       </c>
       <c r="R2">
-        <v>3.564158103881698</v>
+        <v>8.965526992789998</v>
       </c>
       <c r="S2">
-        <v>0.01818606129267676</v>
+        <v>0.007270681283446865</v>
       </c>
       <c r="T2">
-        <v>0.01818606129267676</v>
+        <v>0.004023119705336381</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H3">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I3">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J3">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.528555257427798</v>
+        <v>0.169191</v>
       </c>
       <c r="N3">
-        <v>0.528555257427798</v>
+        <v>0.5075730000000001</v>
       </c>
       <c r="O3">
-        <v>0.4093630625607803</v>
+        <v>0.086051090042693</v>
       </c>
       <c r="P3">
-        <v>0.4093630625607803</v>
+        <v>0.09989466810415577</v>
       </c>
       <c r="Q3">
-        <v>15.27355312257967</v>
+        <v>5.032968835851</v>
       </c>
       <c r="R3">
-        <v>15.27355312257967</v>
+        <v>30.197813015106</v>
       </c>
       <c r="S3">
-        <v>0.07793306726255377</v>
+        <v>0.01632614004482775</v>
       </c>
       <c r="T3">
-        <v>0.07793306726255377</v>
+        <v>0.01355072788212418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H4">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I4">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J4">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.63926879267097</v>
+        <v>0.03499966666666667</v>
       </c>
       <c r="N4">
-        <v>0.63926879267097</v>
+        <v>0.104999</v>
       </c>
       <c r="O4">
-        <v>0.4951100704982936</v>
+        <v>0.01780094371330375</v>
       </c>
       <c r="P4">
-        <v>0.4951100704982936</v>
+        <v>0.02066469307127891</v>
       </c>
       <c r="Q4">
-        <v>18.47281949664687</v>
+        <v>1.041144219246333</v>
       </c>
       <c r="R4">
-        <v>18.47281949664687</v>
+        <v>6.246865315477999</v>
       </c>
       <c r="S4">
-        <v>0.09425727417891366</v>
+        <v>0.003377304109097348</v>
       </c>
       <c r="T4">
-        <v>0.09425727417891366</v>
+        <v>0.002803168956771059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.4935243023309</v>
+        <v>29.747261</v>
       </c>
       <c r="H5">
-        <v>20.4935243023309</v>
+        <v>59.494522</v>
       </c>
       <c r="I5">
-        <v>0.1350143981120275</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J5">
-        <v>0.1350143981120275</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.123340946863606</v>
+        <v>0.6000156666666667</v>
       </c>
       <c r="N5">
-        <v>0.123340946863606</v>
+        <v>1.800047</v>
       </c>
       <c r="O5">
-        <v>0.09552686694092614</v>
+        <v>0.3051699095067693</v>
       </c>
       <c r="P5">
-        <v>0.09552686694092614</v>
+        <v>0.3542645050798235</v>
       </c>
       <c r="Q5">
-        <v>2.527690692021814</v>
+        <v>17.84882264042233</v>
       </c>
       <c r="R5">
-        <v>2.527690692021814</v>
+        <v>107.092935842534</v>
       </c>
       <c r="S5">
-        <v>0.01289750244355688</v>
+        <v>0.0578987050321275</v>
       </c>
       <c r="T5">
-        <v>0.01289750244355688</v>
+        <v>0.04805603740158358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.4935243023309</v>
+        <v>29.747261</v>
       </c>
       <c r="H6">
-        <v>20.4935243023309</v>
+        <v>59.494522</v>
       </c>
       <c r="I6">
-        <v>0.1350143981120275</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J6">
-        <v>0.1350143981120275</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.528555257427798</v>
+        <v>0.3445373333333333</v>
       </c>
       <c r="N6">
-        <v>0.528555257427798</v>
+        <v>1.033612</v>
       </c>
       <c r="O6">
-        <v>0.4093630625607803</v>
+        <v>0.1752328025352176</v>
       </c>
       <c r="P6">
-        <v>0.4093630625607803</v>
+        <v>0.2034236015084976</v>
       </c>
       <c r="Q6">
-        <v>10.83196001322134</v>
+        <v>10.24904197891066</v>
       </c>
       <c r="R6">
-        <v>10.83196001322134</v>
+        <v>61.49425187346399</v>
       </c>
       <c r="S6">
-        <v>0.05526990750093998</v>
+        <v>0.03324624096241229</v>
       </c>
       <c r="T6">
-        <v>0.05526990750093998</v>
+        <v>0.0275944444399094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.4935243023309</v>
+        <v>29.747261</v>
       </c>
       <c r="H7">
-        <v>20.4935243023309</v>
+        <v>59.494522</v>
       </c>
       <c r="I7">
-        <v>0.1350143981120275</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J7">
-        <v>0.1350143981120275</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.63926879267097</v>
+        <v>0.742078</v>
       </c>
       <c r="N7">
-        <v>0.63926879267097</v>
+        <v>1.484156</v>
       </c>
       <c r="O7">
-        <v>0.4951100704982936</v>
+        <v>0.377423271903952</v>
       </c>
       <c r="P7">
-        <v>0.4951100704982936</v>
+        <v>0.2920944790892963</v>
       </c>
       <c r="Q7">
-        <v>13.10087053832426</v>
+        <v>22.074787948358</v>
       </c>
       <c r="R7">
-        <v>13.10087053832426</v>
+        <v>88.299151793432</v>
       </c>
       <c r="S7">
-        <v>0.06684698816753058</v>
+        <v>0.07160705564826547</v>
       </c>
       <c r="T7">
-        <v>0.06684698816753058</v>
+        <v>0.03962266332256029</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.7407743079077</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H8">
-        <v>28.7407743079077</v>
+        <v>65.250653</v>
       </c>
       <c r="I8">
-        <v>0.1893485125940211</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J8">
-        <v>0.1893485125940211</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.123340946863606</v>
+        <v>0.0753475</v>
       </c>
       <c r="N8">
-        <v>0.123340946863606</v>
+        <v>0.150695</v>
       </c>
       <c r="O8">
-        <v>0.09552686694092614</v>
+        <v>0.03832198229806438</v>
       </c>
       <c r="P8">
-        <v>0.09552686694092614</v>
+        <v>0.02965805314694783</v>
       </c>
       <c r="Q8">
-        <v>3.544914316730536</v>
+        <v>1.638824525639167</v>
       </c>
       <c r="R8">
-        <v>3.544914316730536</v>
+        <v>9.832947153834999</v>
       </c>
       <c r="S8">
-        <v>0.01808787016803133</v>
+        <v>0.005316082731110226</v>
       </c>
       <c r="T8">
-        <v>0.01808787016803133</v>
+        <v>0.004412358970971587</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,184 +968,184 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.7407743079077</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H9">
-        <v>28.7407743079077</v>
+        <v>65.250653</v>
       </c>
       <c r="I9">
-        <v>0.1893485125940211</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J9">
-        <v>0.1893485125940211</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.528555257427798</v>
+        <v>0.169191</v>
       </c>
       <c r="N9">
-        <v>0.528555257427798</v>
+        <v>0.5075730000000001</v>
       </c>
       <c r="O9">
-        <v>0.4093630625607803</v>
+        <v>0.086051090042693</v>
       </c>
       <c r="P9">
-        <v>0.4093630625607803</v>
+        <v>0.09989466810415577</v>
       </c>
       <c r="Q9">
-        <v>15.1910873629904</v>
+        <v>3.679941077241</v>
       </c>
       <c r="R9">
-        <v>15.1910873629904</v>
+        <v>33.119469695169</v>
       </c>
       <c r="S9">
-        <v>0.07751228700681695</v>
+        <v>0.01193713598140974</v>
       </c>
       <c r="T9">
-        <v>0.07751228700681695</v>
+        <v>0.01486176900343715</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.7407743079077</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H10">
-        <v>28.7407743079077</v>
+        <v>65.250653</v>
       </c>
       <c r="I10">
-        <v>0.1893485125940211</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J10">
-        <v>0.1893485125940211</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.63926879267097</v>
+        <v>0.03499966666666667</v>
       </c>
       <c r="N10">
-        <v>0.63926879267097</v>
+        <v>0.104999</v>
       </c>
       <c r="O10">
-        <v>0.4951100704982936</v>
+        <v>0.01780094371330375</v>
       </c>
       <c r="P10">
-        <v>0.4951100704982936</v>
+        <v>0.02066469307127891</v>
       </c>
       <c r="Q10">
-        <v>18.37308009224499</v>
+        <v>0.7612503682607777</v>
       </c>
       <c r="R10">
-        <v>18.37308009224499</v>
+        <v>6.851253314347</v>
       </c>
       <c r="S10">
-        <v>0.09374835541917283</v>
+        <v>0.002469373550035248</v>
       </c>
       <c r="T10">
-        <v>0.09374835541917283</v>
+        <v>0.003074377249364914</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>54.5696357641836</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H11">
-        <v>54.5696357641836</v>
+        <v>65.250653</v>
       </c>
       <c r="I11">
-        <v>0.3595129085267109</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J11">
-        <v>0.3595129085267109</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.123340946863606</v>
+        <v>0.6000156666666667</v>
       </c>
       <c r="N11">
-        <v>0.123340946863606</v>
+        <v>1.800047</v>
       </c>
       <c r="O11">
-        <v>0.09552686694092614</v>
+        <v>0.3051699095067693</v>
       </c>
       <c r="P11">
-        <v>0.09552686694092614</v>
+        <v>0.3542645050798235</v>
       </c>
       <c r="Q11">
-        <v>6.730670545156503</v>
+        <v>13.05047135341011</v>
       </c>
       <c r="R11">
-        <v>6.730670545156503</v>
+        <v>117.454242180691</v>
       </c>
       <c r="S11">
-        <v>0.03434314177637646</v>
+        <v>0.04233362651663634</v>
       </c>
       <c r="T11">
-        <v>0.03434314177637646</v>
+        <v>0.05270548809595868</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.5696357641836</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H12">
-        <v>54.5696357641836</v>
+        <v>65.250653</v>
       </c>
       <c r="I12">
-        <v>0.3595129085267109</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J12">
-        <v>0.3595129085267109</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.528555257427798</v>
+        <v>0.3445373333333333</v>
       </c>
       <c r="N12">
-        <v>0.528555257427798</v>
+        <v>1.033612</v>
       </c>
       <c r="O12">
-        <v>0.4093630625607803</v>
+        <v>0.1752328025352176</v>
       </c>
       <c r="P12">
-        <v>0.4093630625607803</v>
+        <v>0.2034236015084976</v>
       </c>
       <c r="Q12">
-        <v>28.84306787907924</v>
+        <v>7.493761994292889</v>
       </c>
       <c r="R12">
-        <v>28.84306787907924</v>
+        <v>67.44385794863599</v>
       </c>
       <c r="S12">
-        <v>0.147171305264628</v>
+        <v>0.02430855659386311</v>
       </c>
       <c r="T12">
-        <v>0.147171305264628</v>
+        <v>0.03026422363518288</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.5696357641836</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H13">
-        <v>54.5696357641836</v>
+        <v>65.250653</v>
       </c>
       <c r="I13">
-        <v>0.3595129085267109</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J13">
-        <v>0.3595129085267109</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.63926879267097</v>
+        <v>0.742078</v>
       </c>
       <c r="N13">
-        <v>0.63926879267097</v>
+        <v>1.484156</v>
       </c>
       <c r="O13">
-        <v>0.4951100704982936</v>
+        <v>0.377423271903952</v>
       </c>
       <c r="P13">
-        <v>0.4951100704982936</v>
+        <v>0.2920944790892963</v>
       </c>
       <c r="Q13">
-        <v>34.88466517146423</v>
+        <v>16.14035802564467</v>
       </c>
       <c r="R13">
-        <v>34.88466517146423</v>
+        <v>96.842148153868</v>
       </c>
       <c r="S13">
-        <v>0.1779984614857064</v>
+        <v>0.05235672107152612</v>
       </c>
       <c r="T13">
-        <v>0.1779984614857064</v>
+        <v>0.04345617997227053</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.2969937086613</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H14">
-        <v>17.2969937086613</v>
+        <v>93.011927</v>
       </c>
       <c r="I14">
-        <v>0.1139551772682073</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J14">
-        <v>0.1139551772682073</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.123340946863606</v>
+        <v>0.0753475</v>
       </c>
       <c r="N14">
-        <v>0.123340946863606</v>
+        <v>0.150695</v>
       </c>
       <c r="O14">
-        <v>0.09552686694092614</v>
+        <v>0.03832198229806438</v>
       </c>
       <c r="P14">
-        <v>0.09552686694092614</v>
+        <v>0.02965805314694783</v>
       </c>
       <c r="Q14">
-        <v>2.133427581920121</v>
+        <v>2.336072056544166</v>
       </c>
       <c r="R14">
-        <v>2.133427581920121</v>
+        <v>14.016432339265</v>
       </c>
       <c r="S14">
-        <v>0.01088578105612969</v>
+        <v>0.007577841388223118</v>
       </c>
       <c r="T14">
-        <v>0.01088578105612969</v>
+        <v>0.006289623040336537</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.2969937086613</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H15">
-        <v>17.2969937086613</v>
+        <v>93.011927</v>
       </c>
       <c r="I15">
-        <v>0.1139551772682073</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J15">
-        <v>0.1139551772682073</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.528555257427798</v>
+        <v>0.169191</v>
       </c>
       <c r="N15">
-        <v>0.528555257427798</v>
+        <v>0.5075730000000001</v>
       </c>
       <c r="O15">
-        <v>0.4093630625607803</v>
+        <v>0.086051090042693</v>
       </c>
       <c r="P15">
-        <v>0.4093630625607803</v>
+        <v>0.09989466810415577</v>
       </c>
       <c r="Q15">
-        <v>9.142416962408475</v>
+        <v>5.245593647019</v>
       </c>
       <c r="R15">
-        <v>9.142416962408475</v>
+        <v>47.210342823171</v>
       </c>
       <c r="S15">
-        <v>0.04664904036116993</v>
+        <v>0.01701586067639746</v>
       </c>
       <c r="T15">
-        <v>0.04664904036116993</v>
+        <v>0.02118479601481627</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.2969937086613</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H16">
-        <v>17.2969937086613</v>
+        <v>93.011927</v>
       </c>
       <c r="I16">
-        <v>0.1139551772682073</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J16">
-        <v>0.1139551772682073</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.63926879267097</v>
+        <v>0.03499966666666667</v>
       </c>
       <c r="N16">
-        <v>0.63926879267097</v>
+        <v>0.104999</v>
       </c>
       <c r="O16">
-        <v>0.4951100704982936</v>
+        <v>0.01780094371330375</v>
       </c>
       <c r="P16">
-        <v>0.4951100704982936</v>
+        <v>0.02066469307127891</v>
       </c>
       <c r="Q16">
-        <v>11.05742828497328</v>
+        <v>1.085128813674778</v>
       </c>
       <c r="R16">
-        <v>11.05742828497328</v>
+        <v>9.766159323072999</v>
       </c>
       <c r="S16">
-        <v>0.05642035585090763</v>
+        <v>0.003519983047090875</v>
       </c>
       <c r="T16">
-        <v>0.05642035585090763</v>
+        <v>0.004382389127789881</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.78997169000015</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H17">
-        <v>1.78997169000015</v>
+        <v>93.011927</v>
       </c>
       <c r="I17">
-        <v>0.01179260076488901</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J17">
-        <v>0.01179260076488901</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.123340946863606</v>
+        <v>0.6000156666666667</v>
       </c>
       <c r="N17">
-        <v>0.123340946863606</v>
+        <v>1.800047</v>
       </c>
       <c r="O17">
-        <v>0.09552686694092614</v>
+        <v>0.3051699095067693</v>
       </c>
       <c r="P17">
-        <v>0.09552686694092614</v>
+        <v>0.3542645050798235</v>
       </c>
       <c r="Q17">
-        <v>0.2207768031036675</v>
+        <v>18.60287112895211</v>
       </c>
       <c r="R17">
-        <v>0.2207768031036675</v>
+        <v>167.425840160569</v>
       </c>
       <c r="S17">
-        <v>0.001126510204155016</v>
+        <v>0.06034471684460603</v>
       </c>
       <c r="T17">
-        <v>0.001126510204155016</v>
+        <v>0.07512934792055917</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.78997169000015</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H18">
-        <v>1.78997169000015</v>
+        <v>93.011927</v>
       </c>
       <c r="I18">
-        <v>0.01179260076488901</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J18">
-        <v>0.01179260076488901</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.528555257427798</v>
+        <v>0.3445373333333333</v>
       </c>
       <c r="N18">
-        <v>0.528555257427798</v>
+        <v>1.033612</v>
       </c>
       <c r="O18">
-        <v>0.4093630625607803</v>
+        <v>0.1752328025352176</v>
       </c>
       <c r="P18">
-        <v>0.4093630625607803</v>
+        <v>0.2034236015084976</v>
       </c>
       <c r="Q18">
-        <v>0.9460989473964999</v>
+        <v>10.68202709892489</v>
       </c>
       <c r="R18">
-        <v>0.9460989473964999</v>
+        <v>96.13824389032399</v>
       </c>
       <c r="S18">
-        <v>0.004827455164671564</v>
+        <v>0.03465077493375835</v>
       </c>
       <c r="T18">
-        <v>0.004827455164671564</v>
+        <v>0.04314031553779707</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,52 +1591,1168 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.78997169000015</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H19">
-        <v>1.78997169000015</v>
+        <v>93.011927</v>
       </c>
       <c r="I19">
-        <v>0.01179260076488901</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J19">
-        <v>0.01179260076488901</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.63926879267097</v>
+        <v>0.742078</v>
       </c>
       <c r="N19">
-        <v>0.63926879267097</v>
+        <v>1.484156</v>
       </c>
       <c r="O19">
-        <v>0.4951100704982936</v>
+        <v>0.377423271903952</v>
       </c>
       <c r="P19">
-        <v>0.4951100704982936</v>
+        <v>0.2920944790892963</v>
       </c>
       <c r="Q19">
-        <v>1.144273041181612</v>
+        <v>23.00736825476867</v>
       </c>
       <c r="R19">
-        <v>1.144273041181612</v>
+        <v>138.044209528612</v>
       </c>
       <c r="S19">
-        <v>0.005838635396062428</v>
+        <v>0.07463219591479259</v>
       </c>
       <c r="T19">
-        <v>0.005838635396062428</v>
+        <v>0.06194486726867988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>54.68136733333333</v>
+      </c>
+      <c r="H20">
+        <v>164.044102</v>
+      </c>
+      <c r="I20">
+        <v>0.3487542616983074</v>
+      </c>
+      <c r="J20">
+        <v>0.37402786366769</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0753475</v>
+      </c>
+      <c r="N20">
+        <v>0.150695</v>
+      </c>
+      <c r="O20">
+        <v>0.03832198229806438</v>
+      </c>
+      <c r="P20">
+        <v>0.02965805314694783</v>
+      </c>
+      <c r="Q20">
+        <v>4.120104325148334</v>
+      </c>
+      <c r="R20">
+        <v>24.72062595089</v>
+      </c>
+      <c r="S20">
+        <v>0.01336495464317705</v>
+      </c>
+      <c r="T20">
+        <v>0.01109293825909571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>54.68136733333333</v>
+      </c>
+      <c r="H21">
+        <v>164.044102</v>
+      </c>
+      <c r="I21">
+        <v>0.3487542616983074</v>
+      </c>
+      <c r="J21">
+        <v>0.37402786366769</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.169191</v>
+      </c>
+      <c r="N21">
+        <v>0.5075730000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.086051090042693</v>
+      </c>
+      <c r="P21">
+        <v>0.09989466810415577</v>
+      </c>
+      <c r="Q21">
+        <v>9.251595220494</v>
+      </c>
+      <c r="R21">
+        <v>83.26435698444601</v>
+      </c>
+      <c r="S21">
+        <v>0.03001068437617397</v>
+      </c>
+      <c r="T21">
+        <v>0.03736338930279032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>54.68136733333333</v>
+      </c>
+      <c r="H22">
+        <v>164.044102</v>
+      </c>
+      <c r="I22">
+        <v>0.3487542616983074</v>
+      </c>
+      <c r="J22">
+        <v>0.37402786366769</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.03499966666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.104999</v>
+      </c>
+      <c r="O22">
+        <v>0.01780094371330375</v>
+      </c>
+      <c r="P22">
+        <v>0.02066469307127891</v>
+      </c>
+      <c r="Q22">
+        <v>1.913829629544222</v>
+      </c>
+      <c r="R22">
+        <v>17.224466665898</v>
+      </c>
+      <c r="S22">
+        <v>0.006208154982266374</v>
+      </c>
+      <c r="T22">
+        <v>0.007729171002798968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>54.68136733333333</v>
+      </c>
+      <c r="H23">
+        <v>164.044102</v>
+      </c>
+      <c r="I23">
+        <v>0.3487542616983074</v>
+      </c>
+      <c r="J23">
+        <v>0.37402786366769</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6000156666666667</v>
+      </c>
+      <c r="N23">
+        <v>1.800047</v>
+      </c>
+      <c r="O23">
+        <v>0.3051699095067693</v>
+      </c>
+      <c r="P23">
+        <v>0.3542645050798235</v>
+      </c>
+      <c r="Q23">
+        <v>32.80967707475489</v>
+      </c>
+      <c r="R23">
+        <v>295.2870936727941</v>
+      </c>
+      <c r="S23">
+        <v>0.1064293064825726</v>
+      </c>
+      <c r="T23">
+        <v>0.1325047960082979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>54.68136733333333</v>
+      </c>
+      <c r="H24">
+        <v>164.044102</v>
+      </c>
+      <c r="I24">
+        <v>0.3487542616983074</v>
+      </c>
+      <c r="J24">
+        <v>0.37402786366769</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.3445373333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.033612</v>
+      </c>
+      <c r="O24">
+        <v>0.1752328025352176</v>
+      </c>
+      <c r="P24">
+        <v>0.2034236015084976</v>
+      </c>
+      <c r="Q24">
+        <v>18.83977248404711</v>
+      </c>
+      <c r="R24">
+        <v>169.557952356424</v>
+      </c>
+      <c r="S24">
+        <v>0.06111318667349509</v>
+      </c>
+      <c r="T24">
+        <v>0.07608609509181084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>54.68136733333333</v>
+      </c>
+      <c r="H25">
+        <v>164.044102</v>
+      </c>
+      <c r="I25">
+        <v>0.3487542616983074</v>
+      </c>
+      <c r="J25">
+        <v>0.37402786366769</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.742078</v>
+      </c>
+      <c r="N25">
+        <v>1.484156</v>
+      </c>
+      <c r="O25">
+        <v>0.377423271903952</v>
+      </c>
+      <c r="P25">
+        <v>0.2920944790892963</v>
+      </c>
+      <c r="Q25">
+        <v>40.57783970798533</v>
+      </c>
+      <c r="R25">
+        <v>243.467038247912</v>
+      </c>
+      <c r="S25">
+        <v>0.1316279745406223</v>
+      </c>
+      <c r="T25">
+        <v>0.1092514740028963</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>17.571287</v>
+      </c>
+      <c r="H26">
+        <v>52.713861</v>
+      </c>
+      <c r="I26">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J26">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0753475</v>
+      </c>
+      <c r="N26">
+        <v>0.150695</v>
+      </c>
+      <c r="O26">
+        <v>0.03832198229806438</v>
+      </c>
+      <c r="P26">
+        <v>0.02965805314694783</v>
+      </c>
+      <c r="Q26">
+        <v>1.3239525472325</v>
+      </c>
+      <c r="R26">
+        <v>7.943715283395</v>
+      </c>
+      <c r="S26">
+        <v>0.004294688761999743</v>
+      </c>
+      <c r="T26">
+        <v>0.003564599996844465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>17.571287</v>
+      </c>
+      <c r="H27">
+        <v>52.713861</v>
+      </c>
+      <c r="I27">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J27">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.169191</v>
+      </c>
+      <c r="N27">
+        <v>0.5075730000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.086051090042693</v>
+      </c>
+      <c r="P27">
+        <v>0.09989466810415577</v>
+      </c>
+      <c r="Q27">
+        <v>2.972903618817</v>
+      </c>
+      <c r="R27">
+        <v>26.756132569353</v>
+      </c>
+      <c r="S27">
+        <v>0.009643620376674721</v>
+      </c>
+      <c r="T27">
+        <v>0.01200633540726856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>17.571287</v>
+      </c>
+      <c r="H28">
+        <v>52.713861</v>
+      </c>
+      <c r="I28">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J28">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.03499966666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.104999</v>
+      </c>
+      <c r="O28">
+        <v>0.01780094371330375</v>
+      </c>
+      <c r="P28">
+        <v>0.02066469307127891</v>
+      </c>
+      <c r="Q28">
+        <v>0.6149891879043333</v>
+      </c>
+      <c r="R28">
+        <v>5.534902691139</v>
+      </c>
+      <c r="S28">
+        <v>0.001994925845012381</v>
+      </c>
+      <c r="T28">
+        <v>0.002483688477180212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>17.571287</v>
+      </c>
+      <c r="H29">
+        <v>52.713861</v>
+      </c>
+      <c r="I29">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J29">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.6000156666666667</v>
+      </c>
+      <c r="N29">
+        <v>1.800047</v>
+      </c>
+      <c r="O29">
+        <v>0.3051699095067693</v>
+      </c>
+      <c r="P29">
+        <v>0.3542645050798235</v>
+      </c>
+      <c r="Q29">
+        <v>10.54304748349634</v>
+      </c>
+      <c r="R29">
+        <v>94.88742735146701</v>
+      </c>
+      <c r="S29">
+        <v>0.03419994745223288</v>
+      </c>
+      <c r="T29">
+        <v>0.04257903401254116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>17.571287</v>
+      </c>
+      <c r="H30">
+        <v>52.713861</v>
+      </c>
+      <c r="I30">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J30">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.3445373333333333</v>
+      </c>
+      <c r="N30">
+        <v>1.033612</v>
+      </c>
+      <c r="O30">
+        <v>0.1752328025352176</v>
+      </c>
+      <c r="P30">
+        <v>0.2034236015084976</v>
+      </c>
+      <c r="Q30">
+        <v>6.053964366214667</v>
+      </c>
+      <c r="R30">
+        <v>54.485679295932</v>
+      </c>
+      <c r="S30">
+        <v>0.01963808505333324</v>
+      </c>
+      <c r="T30">
+        <v>0.02444947298807791</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>17.571287</v>
+      </c>
+      <c r="H31">
+        <v>52.713861</v>
+      </c>
+      <c r="I31">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J31">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.742078</v>
+      </c>
+      <c r="N31">
+        <v>1.484156</v>
+      </c>
+      <c r="O31">
+        <v>0.377423271903952</v>
+      </c>
+      <c r="P31">
+        <v>0.2920944790892963</v>
+      </c>
+      <c r="Q31">
+        <v>13.039265514386</v>
+      </c>
+      <c r="R31">
+        <v>78.235593086316</v>
+      </c>
+      <c r="S31">
+        <v>0.04229727658020831</v>
+      </c>
+      <c r="T31">
+        <v>0.0351068215462802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.0364265</v>
+      </c>
+      <c r="H32">
+        <v>4.072853</v>
+      </c>
+      <c r="I32">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J32">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.0753475</v>
+      </c>
+      <c r="N32">
+        <v>0.150695</v>
+      </c>
+      <c r="O32">
+        <v>0.03832198229806438</v>
+      </c>
+      <c r="P32">
+        <v>0.02965805314694783</v>
+      </c>
+      <c r="Q32">
+        <v>0.15343964570875</v>
+      </c>
+      <c r="R32">
+        <v>0.6137585828350001</v>
+      </c>
+      <c r="S32">
+        <v>0.000497733490107382</v>
+      </c>
+      <c r="T32">
+        <v>0.0002754131743631523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.0364265</v>
+      </c>
+      <c r="H33">
+        <v>4.072853</v>
+      </c>
+      <c r="I33">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J33">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.169191</v>
+      </c>
+      <c r="N33">
+        <v>0.5075730000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.086051090042693</v>
+      </c>
+      <c r="P33">
+        <v>0.09989466810415577</v>
+      </c>
+      <c r="Q33">
+        <v>0.3445450359615</v>
+      </c>
+      <c r="R33">
+        <v>2.067270215769</v>
+      </c>
+      <c r="S33">
+        <v>0.001117648587209371</v>
+      </c>
+      <c r="T33">
+        <v>0.0009276504937192894</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.0364265</v>
+      </c>
+      <c r="H34">
+        <v>4.072853</v>
+      </c>
+      <c r="I34">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J34">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.03499966666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.104999</v>
+      </c>
+      <c r="O34">
+        <v>0.01780094371330375</v>
+      </c>
+      <c r="P34">
+        <v>0.02066469307127891</v>
+      </c>
+      <c r="Q34">
+        <v>0.07127424869116666</v>
+      </c>
+      <c r="R34">
+        <v>0.427645492147</v>
+      </c>
+      <c r="S34">
+        <v>0.0002312021798015196</v>
+      </c>
+      <c r="T34">
+        <v>0.0001918982573738786</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.0364265</v>
+      </c>
+      <c r="H35">
+        <v>4.072853</v>
+      </c>
+      <c r="I35">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J35">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.6000156666666667</v>
+      </c>
+      <c r="N35">
+        <v>1.800047</v>
+      </c>
+      <c r="O35">
+        <v>0.3051699095067693</v>
+      </c>
+      <c r="P35">
+        <v>0.3542645050798235</v>
+      </c>
+      <c r="Q35">
+        <v>1.221887804015167</v>
+      </c>
+      <c r="R35">
+        <v>7.331326824091001</v>
+      </c>
+      <c r="S35">
+        <v>0.003963607178593949</v>
+      </c>
+      <c r="T35">
+        <v>0.003289801640883037</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.0364265</v>
+      </c>
+      <c r="H36">
+        <v>4.072853</v>
+      </c>
+      <c r="I36">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J36">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.3445373333333333</v>
+      </c>
+      <c r="N36">
+        <v>1.033612</v>
+      </c>
+      <c r="O36">
+        <v>0.1752328025352176</v>
+      </c>
+      <c r="P36">
+        <v>0.2034236015084976</v>
+      </c>
+      <c r="Q36">
+        <v>0.7016249558393334</v>
+      </c>
+      <c r="R36">
+        <v>4.209749735036</v>
+      </c>
+      <c r="S36">
+        <v>0.002275958318355492</v>
+      </c>
+      <c r="T36">
+        <v>0.001889049815719477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.0364265</v>
+      </c>
+      <c r="H37">
+        <v>4.072853</v>
+      </c>
+      <c r="I37">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J37">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.742078</v>
+      </c>
+      <c r="N37">
+        <v>1.484156</v>
+      </c>
+      <c r="O37">
+        <v>0.377423271903952</v>
+      </c>
+      <c r="P37">
+        <v>0.2920944790892963</v>
+      </c>
+      <c r="Q37">
+        <v>1.511187304267</v>
+      </c>
+      <c r="R37">
+        <v>6.044749217068</v>
+      </c>
+      <c r="S37">
+        <v>0.004902048148537189</v>
+      </c>
+      <c r="T37">
+        <v>0.002712472976609169</v>
       </c>
     </row>
   </sheetData>
